--- a/input/Detail2 - Copy.xlsx
+++ b/input/Detail2 - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ron.hiscock\Documents\UiPath\Suspense and WIP Report SOP\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CE20C4-E888-41D5-A00B-ACFA1352E9D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0F5DBE-4529-4E00-A948-E0D1014717C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="19095" windowHeight="9690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
